--- a/cartes.xlsx
+++ b/cartes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,13 +9,96 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+  <si>
+    <t>Zanersky</t>
+  </si>
+  <si>
+    <t>Zombixel</t>
+  </si>
+  <si>
+    <t>Thanatalys</t>
+  </si>
+  <si>
+    <t>Spécial ?</t>
+  </si>
+  <si>
+    <t>Texte</t>
+  </si>
+  <si>
+    <t>Mouvement</t>
+  </si>
+  <si>
+    <t>Force</t>
+  </si>
+  <si>
+    <t>Rapidité</t>
+  </si>
+  <si>
+    <t>Pied</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Haut</t>
+  </si>
+  <si>
+    <t>Droit</t>
+  </si>
+  <si>
+    <t>Bas</t>
+  </si>
+  <si>
+    <t>Sauté</t>
+  </si>
+  <si>
+    <t>Retourné</t>
+  </si>
+  <si>
+    <t>Blocage</t>
+  </si>
+  <si>
+    <t>Genou</t>
+  </si>
+  <si>
+    <t>Reculer</t>
+  </si>
+  <si>
+    <t>(Prise)</t>
+  </si>
+  <si>
+    <t>2 coups de suite</t>
+  </si>
+  <si>
+    <t>Impossible à bloquer (4 poings)</t>
+  </si>
+  <si>
+    <t>Ꙭ</t>
+  </si>
+  <si>
+    <t>Trop rapide! Impossible à bloquer ce coup</t>
+  </si>
+  <si>
+    <t>Attaques de base F1/R2 - 1/3 - 2/3 - 2/4…</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>ATTAQUE SURPRISE!</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,20 +106,188 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -44,19 +295,183 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="ZoneTexte 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943600" y="2057400"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-BE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +513,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +548,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +756,190 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="23" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15" style="27" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="30"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="F13" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="E14" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C15" s="34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/cartes.xlsx
+++ b/cartes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
   <si>
     <t>Zanersky</t>
   </si>
@@ -73,72 +73,62 @@
     <t>(Prise)</t>
   </si>
   <si>
-    <t>2 coups de suite</t>
-  </si>
-  <si>
-    <t>Impossible à bloquer (4 poings)</t>
-  </si>
-  <si>
     <t>Ꙭ</t>
   </si>
   <si>
-    <t>Trop rapide! Impossible à bloquer ce coup</t>
-  </si>
-  <si>
     <t>Attaques de base F1/R2 - 1/3 - 2/3 - 2/4…</t>
   </si>
   <si>
     <t>J</t>
   </si>
   <si>
-    <t>ATTAQUE SURPRISE!</t>
+    <t>2 Fast 4 You</t>
+  </si>
+  <si>
+    <t>Votre adversaire est trop lent: vous lui donnez 2 coups de suite</t>
+  </si>
+  <si>
+    <t>Second chance</t>
+  </si>
+  <si>
+    <t>Bad Timing</t>
+  </si>
+  <si>
+    <t>Vous vous défaussez de X cartes</t>
+  </si>
+  <si>
+    <t>Death Throw</t>
+  </si>
+  <si>
+    <t>L'adversaire se défausse de X cartes</t>
+  </si>
+  <si>
+    <t>Grizzly Mode</t>
+  </si>
+  <si>
+    <t>Vos dégats sont augmentés de 50%</t>
+  </si>
+  <si>
+    <t>Can't Beart It</t>
+  </si>
+  <si>
+    <t>Vous faites trembler la terre par énérvement : vous et votre adversaire perdez 4 cartes!</t>
+  </si>
+  <si>
+    <t>Trop rapide! Vous assainez 4 coups de poing de suite. Impossible à bloquer ce coup mais, vous ne faites pas beaucoup de dégats</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Wingdings"/>
-      <charset val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -150,7 +140,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -169,24 +159,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -198,9 +170,7 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -211,9 +181,7 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -224,14 +192,23 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dashed">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
         <color auto="1"/>
       </right>
       <top/>
@@ -239,10 +216,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dashed">
+      <left style="dotted">
         <color auto="1"/>
       </left>
-      <right style="dashed">
+      <right style="dotted">
         <color auto="1"/>
       </right>
       <top/>
@@ -250,7 +227,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dashed">
+      <left style="dotted">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -261,143 +238,131 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dashed">
+      <left style="dotted">
         <color auto="1"/>
       </left>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="dashed">
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="distributed"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="distributed"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="distributed"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="distributed"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -760,179 +725,282 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="23" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" style="26" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15" style="27" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="27"/>
+    <col min="1" max="1" width="11.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" style="15" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="16" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:18" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="H2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="H4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="F13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="30"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="19" t="s">
+      <c r="H13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="L13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="22"/>
+      <c r="P13" s="23"/>
+      <c r="R13" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="E14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="F13" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="E14" s="32" t="s">
+      <c r="F14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="L14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="22"/>
+      <c r="P14" s="23"/>
+      <c r="R14" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C15" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C15" s="34" t="s">
-        <v>24</v>
-      </c>
+      <c r="I15" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/cartes.xlsx
+++ b/cartes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>Zanersky</t>
   </si>
@@ -79,43 +79,55 @@
     <t>Attaques de base F1/R2 - 1/3 - 2/3 - 2/4…</t>
   </si>
   <si>
-    <t>J</t>
-  </si>
-  <si>
     <t>2 Fast 4 You</t>
   </si>
   <si>
-    <t>Votre adversaire est trop lent: vous lui donnez 2 coups de suite</t>
-  </si>
-  <si>
     <t>Second chance</t>
   </si>
   <si>
     <t>Bad Timing</t>
   </si>
   <si>
-    <t>Vous vous défaussez de X cartes</t>
-  </si>
-  <si>
     <t>Death Throw</t>
   </si>
   <si>
-    <t>L'adversaire se défausse de X cartes</t>
-  </si>
-  <si>
     <t>Grizzly Mode</t>
   </si>
   <si>
-    <t>Vos dégats sont augmentés de 50%</t>
-  </si>
-  <si>
     <t>Can't Beart It</t>
   </si>
   <si>
-    <t>Vous faites trembler la terre par énérvement : vous et votre adversaire perdez 4 cartes!</t>
-  </si>
-  <si>
-    <t>Trop rapide! Vous assainez 4 coups de poing de suite. Impossible à bloquer ce coup mais, vous ne faites pas beaucoup de dégats</t>
+    <t>SUPER</t>
+  </si>
+  <si>
+    <t>Usain Bolt</t>
+  </si>
+  <si>
+    <t>Your opponent is too slow: you hit 2 times in this turn</t>
+  </si>
+  <si>
+    <t>You're so fast, you hit your opponent 4 times. Impossible to block but your fists are not strong enough</t>
+  </si>
+  <si>
+    <t>You increase your damages by 50%</t>
+  </si>
+  <si>
+    <t>You make an earthquake: You and your opponent lose 4 cards</t>
+  </si>
+  <si>
+    <t>You discard 4 cards from your hand</t>
+  </si>
+  <si>
+    <t>Your opponent discards 4 cards from their hand</t>
+  </si>
+  <si>
+    <t>Your opponent doesn't see you running behind them. Surprise attack!</t>
+  </si>
+  <si>
+    <t>Dead eye</t>
+  </si>
+  <si>
+    <t>You throw one of your eye and make your opponent vomit some of their life</t>
   </si>
 </sst>
 </file>
@@ -287,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="distributed"/>
@@ -310,9 +322,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="distributed"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="distributed"/>
     </xf>
@@ -361,8 +370,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,31 +733,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" style="15" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" style="16" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="11.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" style="14" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="15" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -808,199 +817,211 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="H2" s="14" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="H2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="H4" s="14" t="s">
+      <c r="D4" s="18"/>
+      <c r="H4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N9" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="N10" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="N11" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="14" t="s">
+      <c r="N12" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="F13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="L13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="21"/>
+      <c r="P13" s="22"/>
+      <c r="R13" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="E14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="F13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="22"/>
-      <c r="L13" s="15" t="s">
+      <c r="I14" s="21"/>
+      <c r="L14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="O13" s="22"/>
-      <c r="P13" s="23"/>
-      <c r="R13" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="E14" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="14" t="s">
+      <c r="O14" s="21"/>
+      <c r="P14" s="22"/>
+      <c r="R14" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="22"/>
-      <c r="L14" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="N14" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O14" s="22"/>
-      <c r="P14" s="23"/>
-      <c r="R14" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C15" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="O15" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="P15" s="23"/>
+      <c r="F15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
